--- a/medicine/Mort/Décès_en_1985/Décès_en_1985.xlsx
+++ b/medicine/Mort/Décès_en_1985/Décès_en_1985.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1985</t>
+          <t>Décès_en_1985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -502,7 +514,7 @@
 2 janvier : Jacques de Lacretelle, écrivain français (° 14 juillet 1888).
 3 janvier :
 Lucien Cailliet, compositeur, arrangeur, orchestrateur, chef d'orchestre, clarinettiste, saxophoniste et pédagogue américain d'origine française (° 22 mai 1891).
-Jean-Jacques Kretzschmar, footballeur français (° 11 janvier 1925)[1].
+Jean-Jacques Kretzschmar, footballeur français (° 11 janvier 1925).
 7 janvier : Jules Vandooren, footballeur international français devenu entraineur et sélectionneur du Sénégal (° 30 décembre 1908).
 11 janvier : William John McKell, homme politique britannique puis australien (° 26 septembre 1891).
 15 janvier : Salvador Cardona, coureur cycliste espagnol (° 12 janvier 1901).
@@ -618,7 +630,7 @@
 18 juillet : Robert Raglan, acteur britannique (° avril 1906).
 19 juillet : Janusz A. Zajdel, écrivain polonais de science-fiction (° 15 septembre 1938).
 21 juillet : Alvah Bessie, scénariste et acteur américain (° 4 juin 1904).
-22 juillet : Raoul Blanc, footballeur français (° 28 août 1905)[2].
+22 juillet : Raoul Blanc, footballeur français (° 28 août 1905).
 24 juillet : Willem Minderman, artiste visuel néerlandais (° 13 août 1910).
 25 juillet : Grant Williams, acteur américain (° 18 août 1931).
 26 juillet : Božo Broketa, footballeur yougoslave (° 24 décembre 1922).
